--- a/EVOSS system.xlsx
+++ b/EVOSS system.xlsx
@@ -2380,7 +2380,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>

--- a/EVOSS system.xlsx
+++ b/EVOSS system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId5"/>
+    <sheet name="SS OT Report" sheetId="17" r:id="rId6"/>
+    <sheet name="SS Shift Report" sheetId="18" r:id="rId7"/>
+    <sheet name="EE OT Submissions Report" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="138">
   <si>
     <t>George Glass</t>
   </si>
@@ -294,6 +297,144 @@
   </si>
   <si>
     <t>Last 4</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Job Code</t>
+  </si>
+  <si>
+    <t>Vol/Mand</t>
+  </si>
+  <si>
+    <t>WIO</t>
+  </si>
+  <si>
+    <t>Comment/Preferred Postion</t>
+  </si>
+  <si>
+    <t>OT Block</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>FPO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Isaac Johnson</t>
+  </si>
+  <si>
+    <t>1D/BACK</t>
+  </si>
+  <si>
+    <t>Joe Rouse</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>Rafael Vargas</t>
+  </si>
+  <si>
+    <t>1D01 - 2D03</t>
+  </si>
+  <si>
+    <t>Gabriel Garcia</t>
+  </si>
+  <si>
+    <t>Jermaine Geter</t>
+  </si>
+  <si>
+    <t>3D16 - 4D17</t>
+  </si>
+  <si>
+    <t>Erica Parker</t>
+  </si>
+  <si>
+    <t>Overtime Block</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Sched. HRS</t>
+  </si>
+  <si>
+    <t>Angela Carter</t>
+  </si>
+  <si>
+    <t>Nolen Johnson</t>
+  </si>
+  <si>
+    <t>Eric Jefferson</t>
+  </si>
+  <si>
+    <t>Wade McKie</t>
+  </si>
+  <si>
+    <t>Chris Taylor</t>
+  </si>
+  <si>
+    <t>Sam Stallings</t>
+  </si>
+  <si>
+    <t>Ryan Ramirez</t>
+  </si>
+  <si>
+    <t>Rosiland Kazinci</t>
+  </si>
+  <si>
+    <t>Hazel Strang</t>
+  </si>
+  <si>
+    <t>William Fore</t>
+  </si>
+  <si>
+    <t>Brian Simpson</t>
+  </si>
+  <si>
+    <t>Robin Quattlebaum</t>
+  </si>
+  <si>
+    <t>Larry Robinson</t>
+  </si>
+  <si>
+    <t>Betty Hammond</t>
+  </si>
+  <si>
+    <t>Leonard Harris</t>
+  </si>
+  <si>
+    <t>MPO</t>
+  </si>
+  <si>
+    <t>4:00pm 7/9/2017</t>
+  </si>
+  <si>
+    <t>12:00am 7/10/2017</t>
+  </si>
+  <si>
+    <t>8:00pm 7/9/2017</t>
+  </si>
+  <si>
+    <t>8:00am 7/10/2017</t>
+  </si>
+  <si>
+    <t>8:00am 7/9/2017</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Shift</t>
   </si>
 </sst>
 </file>
@@ -671,7 +812,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,6 +991,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2380,7 +2530,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -10079,4 +10229,1033 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E22">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="81">
+        <v>42927</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="81">
+        <v>42927</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="81">
+        <v>42927</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="81">
+        <v>42927</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="81">
+        <v>42927</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="81">
+        <v>42928</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="81">
+        <v>42929</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="81">
+        <v>42929</v>
+      </c>
+      <c r="C21" s="18">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="81">
+        <v>42929</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="80"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="80"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="80"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="80"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="80"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="80"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="80"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="80"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="80"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="80"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="80"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="80"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="80"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="80"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="80"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="80"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="80"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="80"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="80"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F46">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EVOSS system.xlsx
+++ b/EVOSS system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="3" r:id="rId1"/>
@@ -15,13 +15,16 @@
     <sheet name="SS OT Report" sheetId="17" r:id="rId6"/>
     <sheet name="SS Shift Report" sheetId="18" r:id="rId7"/>
     <sheet name="EE OT Submissions Report" sheetId="19" r:id="rId8"/>
+    <sheet name="Employee" sheetId="20" r:id="rId9"/>
+    <sheet name="Overtime Slot" sheetId="21" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="163">
   <si>
     <t>George Glass</t>
   </si>
@@ -329,9 +332,6 @@
     <t>Isaac Johnson</t>
   </si>
   <si>
-    <t>1D/BACK</t>
-  </si>
-  <si>
     <t>Joe Rouse</t>
   </si>
   <si>
@@ -435,14 +435,93 @@
   </si>
   <si>
     <t>Shift</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Forced OT hours</t>
+  </si>
+  <si>
+    <t>Force Refusals</t>
+  </si>
+  <si>
+    <t>Granted Refusals</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Shift Code</t>
+  </si>
+  <si>
+    <t># Forced</t>
+  </si>
+  <si>
+    <t># Mandated</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Hadden</t>
+  </si>
+  <si>
+    <t>803-646-2912</t>
+  </si>
+  <si>
+    <t>justin.hadden@agy.com</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>OT Hours</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Justin Hadden</t>
+  </si>
+  <si>
+    <t>Shift #</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Forced</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Call-Off</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Last Login</t>
+  </si>
+  <si>
+    <t>1D Relief</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -618,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -799,6 +878,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -812,7 +906,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,6 +1053,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="13" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -992,13 +1095,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4058,24 +4177,24 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="68" t="s">
+      <c r="I37" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="68" t="s">
+      <c r="R37" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -4085,20 +4204,20 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -4108,20 +4227,20 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -4132,20 +4251,20 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -4156,20 +4275,20 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -4180,20 +4299,20 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -4204,20 +4323,20 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -4228,20 +4347,20 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -4251,16 +4370,16 @@
       <c r="E45" s="10"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -4370,6 +4489,1352 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="87" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="89" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="89" customWidth="1"/>
+    <col min="8" max="8" width="10" style="87" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="15" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="82">
+        <v>42928</v>
+      </c>
+      <c r="D2" s="85">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="85">
+        <v>0</v>
+      </c>
+      <c r="G2" s="85">
+        <v>1</v>
+      </c>
+      <c r="H2" s="88">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="82">
+        <v>42931</v>
+      </c>
+      <c r="D3" s="85">
+        <v>3</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="85">
+        <v>0</v>
+      </c>
+      <c r="G3" s="85">
+        <v>1</v>
+      </c>
+      <c r="H3" s="88">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="82">
+        <v>42940</v>
+      </c>
+      <c r="D4" s="85">
+        <v>2</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="85">
+        <v>1</v>
+      </c>
+      <c r="G4" s="85">
+        <v>0</v>
+      </c>
+      <c r="H4" s="88">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="82">
+        <v>42942</v>
+      </c>
+      <c r="D5" s="85">
+        <v>2</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="85">
+        <v>0</v>
+      </c>
+      <c r="G5" s="85">
+        <v>0</v>
+      </c>
+      <c r="H5" s="88">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="89" customWidth="1"/>
+    <col min="7" max="7" width="19" style="89" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="87" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="89" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="89" customWidth="1"/>
+    <col min="18" max="18" width="10" style="87" customWidth="1"/>
+    <col min="19" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="22" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="89" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" style="89" customWidth="1"/>
+    <col min="28" max="28" width="10" style="87" customWidth="1"/>
+    <col min="29" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" customWidth="1"/>
+    <col min="32" max="35" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -4574,177 +6039,177 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="R8" s="68" t="s">
+      <c r="R8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
       <c r="O12" s="11"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4767,218 +6232,218 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="68" t="s">
+      <c r="R18" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>
@@ -5006,162 +6471,162 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="69" t="s">
+      <c r="I29" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="71"/>
-      <c r="R29" s="68" t="s">
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="74"/>
+      <c r="R29" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="74"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="77"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="74"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="77"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="74"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="77"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="74"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="74"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="74"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="74"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="77"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="77"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="80"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8623,171 +10088,171 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
       <c r="O31" s="11"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -8801,212 +10266,212 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -9031,156 +10496,156 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="71"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="74"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="74"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="77"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="74"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
-      <c r="R51" s="68"/>
-      <c r="S51" s="68"/>
-      <c r="T51" s="68"/>
-      <c r="U51" s="68"/>
-      <c r="V51" s="68"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="77"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="74"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="68"/>
-      <c r="T52" s="68"/>
-      <c r="U52" s="68"/>
-      <c r="V52" s="68"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="74"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="68"/>
-      <c r="T53" s="68"/>
-      <c r="U53" s="68"/>
-      <c r="V53" s="68"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="74"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="71"/>
+      <c r="V54" s="71"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="74"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="68"/>
-      <c r="V55" s="68"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="71"/>
+      <c r="V55" s="71"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="77"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="80"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
     </row>
   </sheetData>
   <sortState ref="A2:E30">
@@ -9979,10 +11444,10 @@
       <c r="E7" s="48">
         <v>42936</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="81"/>
       <c r="R7" s="22" t="s">
         <v>74</v>
       </c>
@@ -10010,8 +11475,8 @@
         <v>34888</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
       <c r="R8" s="22" t="s">
         <v>68</v>
       </c>
@@ -10041,8 +11506,8 @@
       <c r="E9" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -10060,8 +11525,8 @@
       <c r="E10" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10080,10 +11545,10 @@
       <c r="E12" s="48">
         <v>42936</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="78"/>
+      <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -10101,8 +11566,8 @@
       <c r="E13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -10118,8 +11583,8 @@
         <v>41037</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -10137,8 +11602,8 @@
       <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10157,10 +11622,10 @@
       <c r="E17" s="48">
         <v>42936</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -10178,8 +11643,8 @@
       <c r="E18" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -10195,8 +11660,8 @@
         <v>36671</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -10214,8 +11679,8 @@
       <c r="E20" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
     </row>
   </sheetData>
   <sortState ref="R2:U10">
@@ -10236,7 +11701,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10249,19 +11714,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>94</v>
       </c>
     </row>
@@ -10273,7 +11738,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -10284,13 +11749,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>89</v>
@@ -10301,13 +11766,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>90</v>
@@ -10318,13 +11783,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>91</v>
@@ -10335,13 +11800,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>90</v>
@@ -10352,13 +11817,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>91</v>
@@ -10412,34 +11877,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="68" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -10447,16 +11912,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
@@ -10464,16 +11929,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
@@ -10487,10 +11952,10 @@
         <v>99</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E5" s="1">
         <v>12</v>
@@ -10498,16 +11963,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1">
         <v>16</v>
@@ -10515,16 +11980,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
@@ -10532,16 +11997,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -10549,16 +12014,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -10566,16 +12031,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -10583,16 +12048,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -10600,16 +12065,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
@@ -10617,16 +12082,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -10634,16 +12099,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
@@ -10651,16 +12116,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
@@ -10668,16 +12133,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1">
         <v>12</v>
@@ -10685,16 +12150,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E17" s="1">
         <v>8</v>
@@ -10702,16 +12167,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1">
         <v>12</v>
@@ -10719,16 +12184,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
@@ -10736,16 +12201,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
@@ -10753,16 +12218,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E21" s="1">
         <v>8</v>
@@ -10770,16 +12235,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -10797,8 +12262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10811,27 +12276,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="68" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="81">
+        <v>117</v>
+      </c>
+      <c r="B2" s="70">
         <v>42927</v>
       </c>
       <c r="C2" s="18">
@@ -10846,9 +12311,9 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="81">
+        <v>114</v>
+      </c>
+      <c r="B3" s="70">
         <v>42927</v>
       </c>
       <c r="C3" s="18">
@@ -10863,16 +12328,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="81">
+        <v>128</v>
+      </c>
+      <c r="B4" s="70">
         <v>42927</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>91</v>
@@ -10880,16 +12345,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="81">
+        <v>127</v>
+      </c>
+      <c r="B5" s="70">
         <v>42927</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>89</v>
@@ -10897,9 +12362,9 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="81">
+        <v>116</v>
+      </c>
+      <c r="B6" s="70">
         <v>42927</v>
       </c>
       <c r="C6" s="18">
@@ -10914,9 +12379,9 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="81">
+        <v>126</v>
+      </c>
+      <c r="B7" s="70">
         <v>42928</v>
       </c>
       <c r="C7" s="18">
@@ -10933,7 +12398,7 @@
       <c r="A8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="70">
         <v>42928</v>
       </c>
       <c r="C8" s="18">
@@ -10948,9 +12413,9 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="81">
+        <v>120</v>
+      </c>
+      <c r="B9" s="70">
         <v>42928</v>
       </c>
       <c r="C9" s="18">
@@ -10965,9 +12430,9 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="81">
+        <v>123</v>
+      </c>
+      <c r="B10" s="70">
         <v>42928</v>
       </c>
       <c r="C10" s="18">
@@ -10982,9 +12447,9 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="81">
+        <v>124</v>
+      </c>
+      <c r="B11" s="70">
         <v>42928</v>
       </c>
       <c r="C11" s="18">
@@ -10999,9 +12464,9 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="81">
+        <v>125</v>
+      </c>
+      <c r="B12" s="70">
         <v>42928</v>
       </c>
       <c r="C12" s="18">
@@ -11016,9 +12481,9 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="81">
+        <v>122</v>
+      </c>
+      <c r="B13" s="70">
         <v>42928</v>
       </c>
       <c r="C13" s="18">
@@ -11033,9 +12498,9 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="81">
+        <v>107</v>
+      </c>
+      <c r="B14" s="70">
         <v>42928</v>
       </c>
       <c r="C14" s="18">
@@ -11050,9 +12515,9 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="81">
+        <v>102</v>
+      </c>
+      <c r="B15" s="70">
         <v>42928</v>
       </c>
       <c r="C15" s="18">
@@ -11067,9 +12532,9 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="81">
+        <v>118</v>
+      </c>
+      <c r="B16" s="70">
         <v>42928</v>
       </c>
       <c r="C16" s="18">
@@ -11084,9 +12549,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="81">
+        <v>104</v>
+      </c>
+      <c r="B17" s="70">
         <v>42928</v>
       </c>
       <c r="C17" s="18">
@@ -11101,9 +12566,9 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="81">
+        <v>109</v>
+      </c>
+      <c r="B18" s="70">
         <v>42928</v>
       </c>
       <c r="C18" s="18">
@@ -11118,9 +12583,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="81">
+        <v>119</v>
+      </c>
+      <c r="B19" s="70">
         <v>42928</v>
       </c>
       <c r="C19" s="18">
@@ -11135,9 +12600,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="81">
+        <v>121</v>
+      </c>
+      <c r="B20" s="70">
         <v>42929</v>
       </c>
       <c r="C20" s="18">
@@ -11152,9 +12617,9 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="81">
+        <v>106</v>
+      </c>
+      <c r="B21" s="70">
         <v>42929</v>
       </c>
       <c r="C21" s="18">
@@ -11169,9 +12634,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="81">
+        <v>115</v>
+      </c>
+      <c r="B22" s="70">
         <v>42929</v>
       </c>
       <c r="C22" s="18">
@@ -11190,67 +12655,67 @@
       <c r="G23" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="80"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="80"/>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="80"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="80"/>
+      <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="80"/>
+      <c r="H30" s="69"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="80"/>
+      <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="80"/>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="80"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="80"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="80"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="80"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="80"/>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="80"/>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="80"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="80"/>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="80"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="80"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="80"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="80"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="80"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="80"/>
+      <c r="H46" s="69"/>
     </row>
   </sheetData>
   <sortState ref="A2:F46">
@@ -11258,4 +12723,462 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="15" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="90">
+        <v>42942.567210648151</v>
+      </c>
+      <c r="O2" s="90"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/EVOSS system.xlsx
+++ b/EVOSS system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="3" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="EE OT Submissions Report" sheetId="19" r:id="rId8"/>
     <sheet name="Employee" sheetId="20" r:id="rId9"/>
     <sheet name="Overtime Slot" sheetId="21" r:id="rId10"/>
-    <sheet name="Sheet6" sheetId="23" r:id="rId11"/>
+    <sheet name="Overtime Submissions" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="176">
   <si>
     <t>George Glass</t>
   </si>
@@ -488,40 +488,80 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Justin Hadden</t>
-  </si>
-  <si>
     <t>Shift #</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Forced</t>
-  </si>
-  <si>
-    <t>Need</t>
-  </si>
-  <si>
-    <t>Call-Off</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
     <t>Last Login</t>
   </si>
   <si>
     <t>1D Relief</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>EmpID</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Hissner</t>
+  </si>
+  <si>
+    <t>803-522-8947</t>
+  </si>
+  <si>
+    <t>mark.hissner@email.com</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t># Refused</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Shiftsteed</t>
+  </si>
+  <si>
+    <t>684-749-6582</t>
+  </si>
+  <si>
+    <t>josh.shiftsteed@email.com</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>803-948-1817</t>
+  </si>
+  <si>
+    <t>daniel.disney@email.com</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>OTID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
-    <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="169" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -906,7 +946,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,6 +1102,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1095,29 +1160,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4177,24 +4230,24 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="71" t="s">
+      <c r="R37" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -4204,20 +4257,20 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -4227,20 +4280,20 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
+      <c r="R39" s="80"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -4251,20 +4304,20 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
+      <c r="R40" s="80"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -4275,20 +4328,20 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -4299,20 +4352,20 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -4323,20 +4376,20 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -4347,20 +4400,20 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="80"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -4370,16 +4423,16 @@
       <c r="E45" s="10"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -4491,10 +4544,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,11 +4555,11 @@
     <col min="1" max="1" width="7.28515625" style="23" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="44" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="76" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="89" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="89" customWidth="1"/>
-    <col min="8" max="8" width="10" style="87" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="10" style="76" customWidth="1"/>
     <col min="9" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="15" width="16.42578125" customWidth="1"/>
@@ -4516,29 +4569,29 @@
       <c r="A1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="75" t="s">
         <v>91</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
@@ -4551,29 +4604,29 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="82">
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="71">
         <v>42928</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="74">
         <v>2</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="74">
         <v>0</v>
       </c>
-      <c r="G2" s="85">
-        <v>1</v>
-      </c>
-      <c r="H2" s="88">
+      <c r="G2" s="74">
+        <v>1</v>
+      </c>
+      <c r="H2" s="77">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4586,29 +4639,29 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="82">
-        <v>42931</v>
-      </c>
-      <c r="D3" s="85">
-        <v>3</v>
-      </c>
-      <c r="E3" s="70" t="s">
+      <c r="B3" s="36">
+        <v>2</v>
+      </c>
+      <c r="C3" s="71">
+        <v>42928</v>
+      </c>
+      <c r="D3" s="74">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="74">
         <v>0</v>
       </c>
-      <c r="G3" s="85">
-        <v>1</v>
-      </c>
-      <c r="H3" s="88">
+      <c r="G3" s="74">
+        <v>1</v>
+      </c>
+      <c r="H3" s="77">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4621,29 +4674,29 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="82">
-        <v>42940</v>
-      </c>
-      <c r="D4" s="85">
-        <v>2</v>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="71">
+        <v>42931</v>
+      </c>
+      <c r="D4" s="74">
+        <v>3</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="85">
-        <v>1</v>
-      </c>
-      <c r="G4" s="85">
+      <c r="F4" s="74">
         <v>0</v>
       </c>
-      <c r="H4" s="88">
+      <c r="G4" s="74">
+        <v>1</v>
+      </c>
+      <c r="H4" s="77">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4656,29 +4709,29 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="82">
-        <v>42942</v>
-      </c>
-      <c r="D5" s="85">
+      <c r="B5" s="36">
+        <v>1</v>
+      </c>
+      <c r="C5" s="71">
+        <v>42940</v>
+      </c>
+      <c r="D5" s="74">
         <v>2</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
         <v>0</v>
       </c>
-      <c r="G5" s="85">
+      <c r="H5" s="77">
         <v>0</v>
       </c>
-      <c r="H5" s="88">
-        <v>0</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4688,15 +4741,33 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36">
+        <v>3</v>
+      </c>
+      <c r="C6" s="71">
+        <v>42942</v>
+      </c>
+      <c r="D6" s="74">
+        <v>2</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="74">
+        <v>0</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="77">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4705,15 +4776,33 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="71">
+        <v>42942</v>
+      </c>
+      <c r="D7" s="74">
+        <v>2</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="74">
+        <v>0</v>
+      </c>
+      <c r="G7" s="74">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4724,12 +4813,12 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="85"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="70"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="88"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -4741,12 +4830,12 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="85"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="70"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4758,12 +4847,12 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="85"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="70"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="88"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4775,12 +4864,12 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="85"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="70"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="88"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4792,12 +4881,12 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="85"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="70"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="88"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4809,12 +4898,12 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="85"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="70"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="88"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4826,12 +4915,12 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="70"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="88"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4843,12 +4932,12 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="88"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -4860,12 +4949,12 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="70"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="88"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4877,12 +4966,12 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="70"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="88"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -4894,12 +4983,12 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="85"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="70"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="88"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -4911,12 +5000,12 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="70"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="88"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4928,12 +5017,12 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="70"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="88"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4945,12 +5034,12 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="85"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="88"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4962,12 +5051,12 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="70"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="88"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4976,6 +5065,23 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4983,852 +5089,801 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="89" customWidth="1"/>
-    <col min="7" max="7" width="19" style="89" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="87" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="89" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="89" customWidth="1"/>
-    <col min="18" max="18" width="10" style="87" customWidth="1"/>
-    <col min="19" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="25" width="16.42578125" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="89" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" style="89" customWidth="1"/>
-    <col min="28" max="28" width="10" style="87" customWidth="1"/>
-    <col min="29" max="30" width="11.140625" customWidth="1"/>
-    <col min="31" max="31" width="18.42578125" customWidth="1"/>
-    <col min="32" max="35" width="16.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="19" style="95" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="78" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="78" customWidth="1"/>
+    <col min="15" max="15" width="10" style="76" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="19" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="78" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="78" customWidth="1"/>
+    <col min="25" max="25" width="10" style="76" customWidth="1"/>
+    <col min="26" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" customWidth="1"/>
+    <col min="29" max="32" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+    <row r="1" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="68"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
       <c r="S1" s="68"/>
       <c r="T1" s="68"/>
       <c r="U1" s="68"/>
       <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
       <c r="AC1" s="68"/>
       <c r="AD1" s="68"/>
       <c r="AE1" s="68"/>
       <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="88"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36">
+        <v>3</v>
+      </c>
+      <c r="C2" s="36">
+        <v>5</v>
+      </c>
+      <c r="D2" s="94">
+        <v>42937.583333333336</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="88"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="88"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="88"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="88"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="88"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="88"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="88"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="36"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="88"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="88"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="88"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="36"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="88"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="88"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="88"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="88"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="88"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="88"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="88"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="88"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="88"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="88"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="88"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="88"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="88"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="88"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="88"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="88"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="88"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="88"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="88"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="88"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="88"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="88"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="88"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="88"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="88"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="88"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="88"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="88"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="88"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="88"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="88"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="88"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="88"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="88"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="88"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="88"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="88"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="88"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="88"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="88"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="88"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="88"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="88"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="88"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="88"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="88"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="88"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="88"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="88"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6039,177 +6094,177 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="R8" s="71" t="s">
+      <c r="R8" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="O12" s="11"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6232,218 +6287,218 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="71" t="s">
+      <c r="R18" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>
@@ -6471,162 +6526,162 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="74"/>
-      <c r="R29" s="71" t="s">
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="83"/>
+      <c r="R29" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="77"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="86"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="77"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="86"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="77"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="86"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="86"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="86"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="86"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="77"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="86"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="80"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="89"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10088,171 +10143,171 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
       <c r="O31" s="11"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -10266,212 +10321,212 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
+      <c r="R39" s="80"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
+      <c r="R40" s="80"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="80"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -10496,156 +10551,156 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="74"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="83"/>
+      <c r="R48" s="80"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="80"/>
+      <c r="U48" s="80"/>
+      <c r="V48" s="80"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="77"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="86"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="77"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="86"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="77"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="86"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="80"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="77"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="86"/>
+      <c r="R52" s="80"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="80"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="86"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="86"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="86"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="80"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="80"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="89"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
     </row>
   </sheetData>
   <sortState ref="A2:E30">
@@ -11444,10 +11499,10 @@
       <c r="E7" s="48">
         <v>42936</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="81"/>
+      <c r="G7" s="90"/>
       <c r="R7" s="22" t="s">
         <v>74</v>
       </c>
@@ -11475,8 +11530,8 @@
         <v>34888</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="R8" s="22" t="s">
         <v>68</v>
       </c>
@@ -11506,8 +11561,8 @@
       <c r="E9" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -11525,8 +11580,8 @@
       <c r="E10" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11545,10 +11600,10 @@
       <c r="E12" s="48">
         <v>42936</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="90"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -11566,8 +11621,8 @@
       <c r="E13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -11583,8 +11638,8 @@
         <v>41037</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -11602,8 +11657,8 @@
       <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11622,10 +11677,10 @@
       <c r="E17" s="48">
         <v>42936</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -11643,8 +11698,8 @@
       <c r="E18" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -11660,8 +11715,8 @@
         <v>36671</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -11679,8 +11734,8 @@
       <c r="E20" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
   </sheetData>
   <sortState ref="R2:U10">
@@ -11698,10 +11753,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11710,10 +11765,11 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>92</v>
       </c>
@@ -11729,8 +11785,14 @@
       <c r="E1" s="68" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -11738,7 +11800,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -11746,8 +11808,14 @@
       <c r="E2" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="70">
+        <v>42927</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
@@ -11763,8 +11831,14 @@
       <c r="E3" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="70">
+        <v>42927</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
@@ -11780,8 +11854,14 @@
       <c r="E4" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="70">
+        <v>42927</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -11797,8 +11877,14 @@
       <c r="E5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="70">
+        <v>42927</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>107</v>
       </c>
@@ -11814,8 +11900,14 @@
       <c r="E6" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="70">
+        <v>42927</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
@@ -11831,27 +11923,39 @@
       <c r="E7" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="70">
+        <v>42927</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11863,8 +11967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12263,7 +12367,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12727,40 +12831,41 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="23" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="44" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="44" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="15" width="25.42578125" customWidth="1"/>
+    <col min="10" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" style="92" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="72" t="s">
         <v>138</v>
       </c>
       <c r="D1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="73" t="s">
         <v>143</v>
       </c>
       <c r="F1" s="68" t="s">
@@ -12785,27 +12890,30 @@
         <v>145</v>
       </c>
       <c r="M1" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="68"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="71" t="s">
         <v>148</v>
       </c>
       <c r="D2" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -12832,66 +12940,162 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="90">
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="79">
         <v>42942.567210648151</v>
       </c>
-      <c r="O2" s="90"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="79">
+        <v>42942.716666666667</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1">
+        <v>88</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="79">
+        <v>42940.336805497682</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1">
+        <v>92</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="79">
+        <v>42941.354166666664</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="36"/>
-      <c r="C6" s="82"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
       <c r="F6" s="18"/>
@@ -12903,12 +13107,15 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="O6" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="82"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="70"/>
       <c r="E7" s="70"/>
       <c r="F7" s="18"/>
@@ -12920,12 +13127,13 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="82"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
       <c r="F8" s="18"/>
@@ -12937,12 +13145,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="82"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
       <c r="F9" s="18"/>
@@ -12954,12 +13163,13 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="82"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="70"/>
       <c r="E10" s="70"/>
       <c r="F10" s="18"/>
@@ -12971,12 +13181,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="82"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="70"/>
       <c r="E11" s="70"/>
       <c r="F11" s="18"/>
@@ -12988,12 +13199,13 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="82"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
       <c r="F12" s="18"/>
@@ -13005,12 +13217,13 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="82"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
       <c r="F13" s="18"/>
@@ -13022,12 +13235,13 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="82"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="18"/>
@@ -13039,12 +13253,13 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="82"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="18"/>
@@ -13056,12 +13271,13 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="82"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="18"/>
@@ -13073,12 +13289,13 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="82"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
       <c r="F17" s="18"/>
@@ -13090,12 +13307,13 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="82"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
       <c r="F18" s="18"/>
@@ -13107,12 +13325,13 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="82"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
       <c r="F19" s="18"/>
@@ -13124,12 +13343,13 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="82"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
       <c r="F20" s="18"/>
@@ -13141,12 +13361,13 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="82"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
       <c r="F21" s="18"/>
@@ -13158,12 +13379,13 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="82"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
       <c r="F22" s="18"/>
@@ -13175,7 +13397,8 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVOSS system.xlsx
+++ b/EVOSS system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="178">
   <si>
     <t>George Glass</t>
   </si>
@@ -551,7 +551,18 @@
     <t>OTID</t>
   </si>
   <si>
-    <t>FirstName</t>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Relief</t>
+  </si>
+  <si>
+    <t>SELECT Concat( FirstName, " ", LastName ) , OvertimeSlot.JobCode, OvertimeSubs.Comment, OvertimeSubs.Block, OvertimeSlot.VolMand, OvertimeSlot.Date, OvertimeSlot.Shift
+FROM Employee, OvertimeSubs, OvertimeSlot
+WHERE Employee.ID = OvertimeSubs.EmpID
+AND OvertimeSubs.OTID = OvertimeSlot.ID
+AND Date = "2017-07-20"
+AND Shift =2</t>
   </si>
 </sst>
 </file>
@@ -561,7 +572,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -946,7 +957,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1127,6 +1138,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1160,18 +1184,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4230,24 +4250,24 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="80" t="s">
+      <c r="I37" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="80" t="s">
+      <c r="R37" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -4257,20 +4277,20 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -4280,20 +4300,20 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -4304,20 +4324,20 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -4328,20 +4348,20 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80"/>
-      <c r="V41" s="80"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -4352,20 +4372,20 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="80"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -4376,20 +4396,20 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="80"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="80"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -4400,20 +4420,20 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="80"/>
-      <c r="V44" s="80"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -4423,16 +4443,16 @@
       <c r="E45" s="10"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -4547,7 +4567,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5089,37 +5109,37 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="23" customWidth="1"/>
-    <col min="2" max="3" width="16.5703125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="19" style="95" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="76" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="78" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="78" customWidth="1"/>
-    <col min="15" max="15" width="10" style="76" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="19" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="78" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="78" customWidth="1"/>
-    <col min="25" max="25" width="10" style="76" customWidth="1"/>
-    <col min="26" max="27" width="11.140625" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" customWidth="1"/>
-    <col min="29" max="32" width="16.42578125" customWidth="1"/>
+    <col min="2" max="4" width="16.5703125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="19" style="84" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="76" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="78" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="78" customWidth="1"/>
+    <col min="16" max="16" width="10" style="76" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="20" max="23" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="78" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" style="78" customWidth="1"/>
+    <col min="26" max="26" width="10" style="76" customWidth="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="30" max="33" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>153</v>
       </c>
@@ -5129,41 +5149,44 @@
       <c r="C1" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="68"/>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
-      <c r="M1" s="75"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="75"/>
       <c r="O1" s="75"/>
-      <c r="P1" s="68"/>
+      <c r="P1" s="75"/>
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
       <c r="T1" s="68"/>
       <c r="U1" s="68"/>
       <c r="V1" s="68"/>
-      <c r="W1" s="75"/>
+      <c r="W1" s="68"/>
       <c r="X1" s="75"/>
       <c r="Y1" s="75"/>
-      <c r="Z1" s="68"/>
+      <c r="Z1" s="75"/>
       <c r="AA1" s="68"/>
       <c r="AB1" s="68"/>
       <c r="AC1" s="68"/>
       <c r="AD1" s="68"/>
       <c r="AE1" s="68"/>
       <c r="AF1" s="68"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="68"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5173,717 +5196,742 @@
       <c r="C2" s="36">
         <v>5</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="36">
+        <v>2</v>
+      </c>
+      <c r="E2" s="83">
         <v>42937.583333333336</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="77" t="s">
+        <v>176</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="74"/>
+      <c r="M2" s="1"/>
       <c r="N2" s="74"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="77"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="74"/>
+      <c r="W2" s="1"/>
       <c r="X2" s="74"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="1"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="77"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="74"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="74"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="77"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="74"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="74"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="1"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="77"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="74"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="74"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="74"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="74"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="1"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="77"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="74"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="74"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="77"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="74"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="74"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="1"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="77"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="74"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="74"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="77"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="74"/>
+      <c r="W6" s="1"/>
       <c r="X6" s="74"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="1"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="77"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="74"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="74"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="74"/>
+      <c r="W7" s="1"/>
       <c r="X7" s="74"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="77"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="74"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="74"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="1"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="77"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="74"/>
+      <c r="W8" s="1"/>
       <c r="X8" s="74"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="1"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="77"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="74"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="74"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="77"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="74"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="74"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="1"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="77"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="74"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="74"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="1"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="77"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="74"/>
+      <c r="W10" s="1"/>
       <c r="X10" s="74"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="1"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="77"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="74"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="74"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="77"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="74"/>
+      <c r="W11" s="1"/>
       <c r="X11" s="74"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="1"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="77"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="74"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="74"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="1"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="77"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="74"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="74"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="1"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="77"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="74"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="74"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="77"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="74"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="74"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="1"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="77"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="74"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="77"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="74"/>
+      <c r="W14" s="1"/>
       <c r="X14" s="74"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="1"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="77"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="74"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="74"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="77"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="74"/>
+      <c r="W15" s="1"/>
       <c r="X15" s="74"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="1"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="77"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="74"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="74"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="77"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="74"/>
+      <c r="W16" s="1"/>
       <c r="X16" s="74"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="1"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="77"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="74"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="74"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="1"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="77"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="1"/>
       <c r="X17" s="74"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="1"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="77"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="74"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="74"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="1"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="77"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="74"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="74"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="1"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="77"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="74"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="74"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="1"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="77"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="74"/>
+      <c r="W19" s="1"/>
       <c r="X19" s="74"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="1"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="77"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="74"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="74"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="1"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="77"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="74"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="74"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="1"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="77"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="74"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="74"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="1"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="77"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="74"/>
+      <c r="W21" s="1"/>
       <c r="X21" s="74"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="1"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="77"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="1"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="74"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="74"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="1"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="77"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="74"/>
+      <c r="W22" s="1"/>
       <c r="X22" s="74"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="1"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="77"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6094,177 +6142,177 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="R8" s="80" t="s">
+      <c r="R8" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
       <c r="O12" s="11"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6287,218 +6335,218 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="80" t="s">
+      <c r="R18" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>
@@ -6526,162 +6574,162 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="81" t="s">
+      <c r="I29" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="83"/>
-      <c r="R29" s="80" t="s">
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="88"/>
+      <c r="R29" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="86"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="86"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="86"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="91"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="86"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="86"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="86"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="91"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="86"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80"/>
-      <c r="V36" s="80"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="91"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="89"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="94"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10143,171 +10191,171 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
       <c r="O31" s="11"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -10321,212 +10369,212 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80"/>
-      <c r="V41" s="80"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="80"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="80"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="80"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="80"/>
-      <c r="V44" s="80"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -10551,156 +10599,156 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="83"/>
-      <c r="R48" s="80"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="88"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="86"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="91"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="86"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="91"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="85"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="86"/>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="86"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="91"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="86"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="91"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="86"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="80"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="91"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="86"/>
-      <c r="R55" s="80"/>
-      <c r="S55" s="80"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="91"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="89"/>
-      <c r="R56" s="80"/>
-      <c r="S56" s="80"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="94"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="85"/>
+      <c r="V56" s="85"/>
     </row>
   </sheetData>
   <sortState ref="A2:E30">
@@ -11499,10 +11547,10 @@
       <c r="E7" s="48">
         <v>42936</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="95"/>
       <c r="R7" s="22" t="s">
         <v>74</v>
       </c>
@@ -11530,8 +11578,8 @@
         <v>34888</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
       <c r="R8" s="22" t="s">
         <v>68</v>
       </c>
@@ -11561,8 +11609,8 @@
       <c r="E9" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -11580,8 +11628,8 @@
       <c r="E10" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11600,10 +11648,10 @@
       <c r="E12" s="48">
         <v>42936</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="90"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -11621,8 +11669,8 @@
       <c r="E13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -11638,8 +11686,8 @@
         <v>41037</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -11657,8 +11705,8 @@
       <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11677,10 +11725,10 @@
       <c r="E17" s="48">
         <v>42936</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="90"/>
+      <c r="G17" s="95"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -11698,8 +11746,8 @@
       <c r="E18" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -11715,8 +11763,8 @@
         <v>36671</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -11734,8 +11782,8 @@
       <c r="E20" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
     </row>
   </sheetData>
   <sortState ref="R2:U10">
@@ -11753,10 +11801,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11931,33 +11979,119 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="A8" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:G19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -11967,8 +12101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,8 +12967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12848,7 +12982,7 @@
     <col min="7" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" style="92" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" style="81" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12895,7 +13029,7 @@
       <c r="N1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="80" t="s">
         <v>155</v>
       </c>
       <c r="P1" s="68"/>
@@ -13107,9 +13241,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="79" t="s">
-        <v>175</v>
-      </c>
+      <c r="O6" s="79"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -13225,8 +13357,12 @@
       <c r="B13" s="36"/>
       <c r="C13" s="71"/>
       <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="70">
+        <v>18</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -13243,8 +13379,12 @@
       <c r="B14" s="36"/>
       <c r="C14" s="71"/>
       <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="70">
+        <v>21</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -13261,8 +13401,12 @@
       <c r="B15" s="36"/>
       <c r="C15" s="71"/>
       <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="70">
+        <v>31</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -13279,8 +13423,12 @@
       <c r="B16" s="36"/>
       <c r="C16" s="71"/>
       <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="70">
+        <v>20</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -13297,8 +13445,12 @@
       <c r="B17" s="36"/>
       <c r="C17" s="71"/>
       <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="70">
+        <v>20</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>

--- a/EVOSS system.xlsx
+++ b/EVOSS system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="3" r:id="rId1"/>
@@ -16,15 +16,15 @@
     <sheet name="SS Shift Report" sheetId="18" r:id="rId7"/>
     <sheet name="EE OT Submissions Report" sheetId="19" r:id="rId8"/>
     <sheet name="Employee" sheetId="20" r:id="rId9"/>
-    <sheet name="Overtime Slot" sheetId="21" r:id="rId10"/>
-    <sheet name="Overtime Submissions" sheetId="23" r:id="rId11"/>
+    <sheet name="OvertimeSlot" sheetId="21" r:id="rId10"/>
+    <sheet name="OvertimeSubs" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="182">
   <si>
     <t>George Glass</t>
   </si>
@@ -443,30 +443,12 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>Forced OT hours</t>
-  </si>
-  <si>
-    <t>Force Refusals</t>
-  </si>
-  <si>
-    <t>Granted Refusals</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Shift Code</t>
-  </si>
-  <si>
-    <t># Forced</t>
-  </si>
-  <si>
-    <t># Mandated</t>
-  </si>
-  <si>
     <t>Justin</t>
   </si>
   <si>
@@ -482,18 +464,9 @@
     <t>A</t>
   </si>
   <si>
-    <t>OT Hours</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Shift #</t>
-  </si>
-  <si>
-    <t>Last Login</t>
-  </si>
-  <si>
     <t>1D Relief</t>
   </si>
   <si>
@@ -503,9 +476,6 @@
     <t>EmpID</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Hissner</t>
   </si>
   <si>
@@ -518,9 +488,6 @@
     <t>B</t>
   </si>
   <si>
-    <t># Refused</t>
-  </si>
-  <si>
     <t>Josh</t>
   </si>
   <si>
@@ -557,12 +524,62 @@
     <t>Relief</t>
   </si>
   <si>
-    <t>SELECT Concat( FirstName, " ", LastName ) , OvertimeSlot.JobCode, OvertimeSubs.Comment, OvertimeSubs.Block, OvertimeSlot.VolMand, OvertimeSlot.Date, OvertimeSlot.Shift
+    <t>SELECT Concat( FirstName, " ", LastName ) , OvertimeSlot.JobCode, OvertimeSubs.Comment, 
+OvertimeSubs.Block, OvertimeSlot.VolMand, OvertimeSlot.Date, OvertimeSlot.Shift
 FROM Employee, OvertimeSubs, OvertimeSlot
 WHERE Employee.ID = OvertimeSubs.EmpID
 AND OvertimeSubs.OTID = OvertimeSlot.ID
 AND Date = "2017-07-20"
 AND Shift =2</t>
+  </si>
+  <si>
+    <t>JobCode</t>
+  </si>
+  <si>
+    <t>First4</t>
+  </si>
+  <si>
+    <t>Full8</t>
+  </si>
+  <si>
+    <t>Last4</t>
+  </si>
+  <si>
+    <t>VolMand</t>
+  </si>
+  <si>
+    <t>ShiftCode</t>
+  </si>
+  <si>
+    <t>OTHours</t>
+  </si>
+  <si>
+    <t>ForcedOTHours</t>
+  </si>
+  <si>
+    <t>ForceRefusals</t>
+  </si>
+  <si>
+    <t>GrantedRefusals</t>
+  </si>
+  <si>
+    <t>NumForced</t>
+  </si>
+  <si>
+    <t>NumRefused</t>
+  </si>
+  <si>
+    <t>NumMandated</t>
+  </si>
+  <si>
+    <t>LastLogin</t>
+  </si>
+  <si>
+    <t>SELECT concat(FIrstName," ",LastName),OvertimeSlot.Date,OvertimeSlot.Shift,OvertimeSlot.JobCode,
+OvertimeSubs.Block From Employee,OvertimeSubs,OvertimeSlot 
+Where Employee.ID=OvertimeSubs.EmpID 
+AND OvertimeSubs.OTID=OvertimeSlot.ID
+AND OvertimeSlot.Date &gt; CURDATE()</t>
   </si>
 </sst>
 </file>
@@ -957,7 +974,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1185,13 +1202,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4566,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,31 +4607,31 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C1" s="72" t="s">
         <v>135</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="H1" s="75" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
@@ -4799,9 +4819,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>159</v>
-      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="71">
         <v>42942</v>
       </c>
@@ -4820,9 +4838,7 @@
       <c r="H7" s="77">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5104,837 +5120,812 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="23" customWidth="1"/>
-    <col min="2" max="4" width="16.5703125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="19" style="84" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="76" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="78" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="78" customWidth="1"/>
-    <col min="16" max="16" width="10" style="76" customWidth="1"/>
-    <col min="17" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" customWidth="1"/>
-    <col min="20" max="23" width="16.42578125" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="78" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" style="78" customWidth="1"/>
-    <col min="26" max="26" width="10" style="76" customWidth="1"/>
-    <col min="27" max="28" width="11.140625" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" customWidth="1"/>
-    <col min="30" max="33" width="16.42578125" customWidth="1"/>
+    <col min="1" max="3" width="16.5703125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="19" style="84" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="78" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="78" customWidth="1"/>
+    <col min="15" max="15" width="10" style="76" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="19" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="78" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="78" customWidth="1"/>
+    <col min="25" max="25" width="10" style="76" customWidth="1"/>
+    <col min="26" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" customWidth="1"/>
+    <col min="29" max="32" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>153</v>
+    <row r="1" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>149</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>157</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="68"/>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="M1" s="75"/>
       <c r="N1" s="75"/>
       <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
+      <c r="P1" s="68"/>
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
       <c r="S1" s="68"/>
       <c r="T1" s="68"/>
       <c r="U1" s="68"/>
       <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="W1" s="75"/>
       <c r="X1" s="75"/>
       <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
+      <c r="Z1" s="68"/>
       <c r="AA1" s="68"/>
       <c r="AB1" s="68"/>
       <c r="AC1" s="68"/>
       <c r="AD1" s="68"/>
       <c r="AE1" s="68"/>
       <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="36">
+        <v>3</v>
       </c>
       <c r="B2" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="36">
-        <v>5</v>
-      </c>
-      <c r="D2" s="36">
         <v>2</v>
       </c>
-      <c r="E2" s="83">
+      <c r="D2" s="83">
         <v>42937.583333333336</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>176</v>
-      </c>
+      <c r="E2" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="74"/>
       <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="W2" s="74"/>
       <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="77"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="74"/>
       <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="77"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="W4" s="74"/>
       <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="77"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="74"/>
       <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="77"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="74"/>
       <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="74"/>
       <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="77"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="74"/>
       <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="74"/>
       <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="77"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="74"/>
       <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="74"/>
       <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="77"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="W9" s="74"/>
       <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="77"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="74"/>
       <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="W10" s="74"/>
       <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="74"/>
       <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="74"/>
       <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="77"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="W12" s="74"/>
       <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="77"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="74"/>
       <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="W13" s="74"/>
       <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="77"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="W14" s="74"/>
       <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="77"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="W15" s="74"/>
       <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="77"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="W16" s="74"/>
       <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="77"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="W17" s="74"/>
       <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="77"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="W18" s="74"/>
       <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="77"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="W19" s="74"/>
       <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="77"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="74"/>
       <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="W20" s="74"/>
       <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="77"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="74"/>
       <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="W21" s="74"/>
       <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="77"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="74"/>
       <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="W22" s="74"/>
       <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11801,10 +11792,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11848,7 +11839,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -11978,9 +11969,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>177</v>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>166</v>
       </c>
       <c r="B8" s="97"/>
       <c r="C8" s="97"/>
@@ -11990,58 +11981,58 @@
       <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="96"/>
@@ -12088,9 +12079,36 @@
       <c r="F19" s="96"/>
       <c r="G19" s="96"/>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:G19"/>
+    <mergeCell ref="A8:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12500,8 +12518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12888,29 +12906,84 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
+      <c r="A23" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="42"/>
       <c r="G23" s="5"/>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
       <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
       <c r="H27" s="69"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="99"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
       <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
       <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
       <c r="H30" s="69"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
       <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
       <c r="H32" s="69"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
@@ -12959,6 +13032,9 @@
   <sortState ref="A2:F46">
     <sortCondition ref="F1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A23:E32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12967,8 +13043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12988,7 +13064,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>137</v>
@@ -12997,40 +13073,40 @@
         <v>138</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="M1" s="68" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="P1" s="68"/>
     </row>
@@ -13039,19 +13115,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>95</v>
@@ -13090,16 +13166,16 @@
         <v>75</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>95</v>
@@ -13135,19 +13211,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>99</v>
@@ -13183,19 +13259,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>99</v>
@@ -13357,12 +13433,8 @@
       <c r="B13" s="36"/>
       <c r="C13" s="71"/>
       <c r="D13" s="70"/>
-      <c r="E13" s="70">
-        <v>18</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -13379,12 +13451,8 @@
       <c r="B14" s="36"/>
       <c r="C14" s="71"/>
       <c r="D14" s="70"/>
-      <c r="E14" s="70">
-        <v>21</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>99</v>
-      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -13401,12 +13469,8 @@
       <c r="B15" s="36"/>
       <c r="C15" s="71"/>
       <c r="D15" s="70"/>
-      <c r="E15" s="70">
-        <v>31</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>99</v>
-      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -13423,12 +13487,8 @@
       <c r="B16" s="36"/>
       <c r="C16" s="71"/>
       <c r="D16" s="70"/>
-      <c r="E16" s="70">
-        <v>20</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="E16" s="70"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -13445,12 +13505,8 @@
       <c r="B17" s="36"/>
       <c r="C17" s="71"/>
       <c r="D17" s="70"/>
-      <c r="E17" s="70">
-        <v>20</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>

--- a/EVOSS system.xlsx
+++ b/EVOSS system.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaddenJ\Desktop\EVOSSgit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="3" r:id="rId1"/>
@@ -16,15 +21,16 @@
     <sheet name="SS Shift Report" sheetId="18" r:id="rId7"/>
     <sheet name="EE OT Submissions Report" sheetId="19" r:id="rId8"/>
     <sheet name="Employee" sheetId="20" r:id="rId9"/>
-    <sheet name="OvertimeSlot" sheetId="21" r:id="rId10"/>
-    <sheet name="OvertimeSubs" sheetId="23" r:id="rId11"/>
+    <sheet name="Submissions" sheetId="24" r:id="rId10"/>
+    <sheet name="OvertimeNeed" sheetId="21" r:id="rId11"/>
+    <sheet name="Supervisor" sheetId="23" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="179">
   <si>
     <t>George Glass</t>
   </si>
@@ -437,12 +443,6 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -464,9 +464,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>1D Relief</t>
   </si>
   <si>
@@ -510,18 +507,6 @@
   </si>
   <si>
     <t>daniel.disney@email.com</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>OTID</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Relief</t>
   </si>
   <si>
     <t>SELECT Concat( FirstName, " ", LastName ) , OvertimeSlot.JobCode, OvertimeSubs.Comment, 
@@ -536,18 +521,6 @@
     <t>JobCode</t>
   </si>
   <si>
-    <t>First4</t>
-  </si>
-  <si>
-    <t>Full8</t>
-  </si>
-  <si>
-    <t>Last4</t>
-  </si>
-  <si>
-    <t>VolMand</t>
-  </si>
-  <si>
     <t>ShiftCode</t>
   </si>
   <si>
@@ -581,11 +554,35 @@
 AND OvertimeSubs.OTID=OvertimeSlot.ID
 AND OvertimeSlot.Date &gt; CURDATE()</t>
   </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Subdate</t>
+  </si>
+  <si>
+    <t>OTBlock</t>
+  </si>
+  <si>
+    <t>Tstamp</t>
+  </si>
+  <si>
+    <t>SupID</t>
+  </si>
+  <si>
+    <t>OTDate</t>
+  </si>
+  <si>
+    <t>SipID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -1168,6 +1165,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1200,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1493,6 +1490,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1605,11 +1605,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1617,6 +1620,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1651,11 +1660,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14337"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1663,6 +1675,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1692,11 +1710,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14338"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1704,6 +1725,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1733,11 +1777,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14339"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1745,6 +1792,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1774,11 +1844,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14340"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1786,6 +1859,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1815,11 +1911,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14341"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1827,6 +1926,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1856,11 +1978,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14342"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1868,6 +1993,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1897,11 +2045,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14343"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1909,6 +2060,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1938,11 +2112,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14344"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1950,6 +2127,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1979,11 +2179,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14345"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1991,6 +2194,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2020,11 +2246,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14346"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2032,6 +2261,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2061,11 +2313,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14347"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2073,6 +2328,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2102,11 +2363,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14348"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2114,6 +2378,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2143,11 +2430,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14349"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2155,6 +2445,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2184,11 +2497,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14350"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2196,6 +2512,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2225,11 +2564,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14351"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2237,6 +2579,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2266,11 +2631,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14352"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2278,6 +2646,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2307,11 +2698,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14353"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2319,6 +2713,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2348,11 +2765,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14354"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2360,6 +2780,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2389,11 +2832,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14355"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2401,6 +2847,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2430,11 +2899,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14356"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2442,6 +2914,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2495,7 +2990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2528,9 +3023,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2563,6 +3075,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4270,24 +4799,24 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="85" t="s">
+      <c r="R37" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -4297,20 +4826,20 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -4320,20 +4849,20 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="85"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -4344,20 +4873,20 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -4368,20 +4897,20 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -4392,20 +4921,20 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -4416,20 +4945,20 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -4440,20 +4969,20 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -4463,16 +4992,16 @@
       <c r="E45" s="10"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="86"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -4586,8 +5115,440 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="76" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="10" style="76" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="15" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="75"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,32 +5568,30 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>169</v>
-      </c>
       <c r="H1" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>171</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I1" s="68"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
@@ -4641,33 +5600,14 @@
       <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
-        <v>1</v>
-      </c>
-      <c r="C2" s="71">
-        <v>42928</v>
-      </c>
-      <c r="D2" s="74">
-        <v>2</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="74">
-        <v>0</v>
-      </c>
-      <c r="G2" s="74">
-        <v>1</v>
-      </c>
-      <c r="H2" s="77">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4676,33 +5616,15 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36">
-        <v>2</v>
-      </c>
-      <c r="C3" s="71">
-        <v>42928</v>
-      </c>
-      <c r="D3" s="74">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="74">
-        <v>0</v>
-      </c>
-      <c r="G3" s="74">
-        <v>1</v>
-      </c>
-      <c r="H3" s="77">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -4711,33 +5633,15 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36">
-        <v>1</v>
-      </c>
-      <c r="C4" s="71">
-        <v>42931</v>
-      </c>
-      <c r="D4" s="74">
-        <v>3</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="74">
-        <v>0</v>
-      </c>
-      <c r="G4" s="74">
-        <v>1</v>
-      </c>
-      <c r="H4" s="77">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4746,33 +5650,15 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36">
-        <v>1</v>
-      </c>
-      <c r="C5" s="71">
-        <v>42940</v>
-      </c>
-      <c r="D5" s="74">
-        <v>2</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="74">
-        <v>1</v>
-      </c>
-      <c r="G5" s="74">
-        <v>0</v>
-      </c>
-      <c r="H5" s="77">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4781,33 +5667,15 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36">
-        <v>3</v>
-      </c>
-      <c r="C6" s="71">
-        <v>42942</v>
-      </c>
-      <c r="D6" s="74">
-        <v>2</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="74">
-        <v>0</v>
-      </c>
-      <c r="G6" s="74">
-        <v>1</v>
-      </c>
-      <c r="H6" s="77">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4816,28 +5684,14 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="71">
-        <v>42942</v>
-      </c>
-      <c r="D7" s="74">
-        <v>2</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="74">
-        <v>0</v>
-      </c>
-      <c r="G7" s="74">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77">
-        <v>0</v>
-      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -5124,12 +5978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,21 +6011,23 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="68"/>
+        <v>138</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>169</v>
+      </c>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
@@ -5200,21 +6056,11 @@
       <c r="AF1" s="68"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>3</v>
-      </c>
-      <c r="B2" s="36">
-        <v>5</v>
-      </c>
-      <c r="C2" s="36">
-        <v>2</v>
-      </c>
-      <c r="D2" s="83">
-        <v>42937.583333333336</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>165</v>
-      </c>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -6133,177 +6979,177 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="R8" s="85" t="s">
+      <c r="R8" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
       <c r="O12" s="11"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6326,218 +7172,218 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="85" t="s">
+      <c r="R18" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>
@@ -6565,162 +7411,162 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="86" t="s">
+      <c r="I29" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="88"/>
-      <c r="R29" s="85" t="s">
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="89"/>
+      <c r="R29" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="92"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="91"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="92"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="91"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="92"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="91"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="92"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="91"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="92"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="91"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="92"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="94"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="95"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10182,171 +11028,171 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
       <c r="O31" s="11"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -10360,212 +11206,212 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="85"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="86"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
@@ -10590,156 +11436,156 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="88"/>
-      <c r="R48" s="85"/>
-      <c r="S48" s="85"/>
-      <c r="T48" s="85"/>
-      <c r="U48" s="85"/>
-      <c r="V48" s="85"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="89"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="86"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="91"/>
-      <c r="R49" s="85"/>
-      <c r="S49" s="85"/>
-      <c r="T49" s="85"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="92"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="86"/>
+      <c r="T49" s="86"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="86"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="91"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="92"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
-      <c r="R51" s="85"/>
-      <c r="S51" s="85"/>
-      <c r="T51" s="85"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="92"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="91"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="92"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="86"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="91"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="92"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="91"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="92"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="91"/>
-      <c r="R55" s="85"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="85"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="92"/>
+      <c r="R55" s="86"/>
+      <c r="S55" s="86"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="86"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="93"/>
-      <c r="M56" s="94"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="85"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="95"/>
+      <c r="R56" s="86"/>
+      <c r="S56" s="86"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86"/>
     </row>
   </sheetData>
   <sortState ref="A2:E30">
@@ -11538,10 +12384,10 @@
       <c r="E7" s="48">
         <v>42936</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="96"/>
       <c r="R7" s="22" t="s">
         <v>74</v>
       </c>
@@ -11569,8 +12415,8 @@
         <v>34888</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
       <c r="R8" s="22" t="s">
         <v>68</v>
       </c>
@@ -11600,8 +12446,8 @@
       <c r="E9" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -11619,8 +12465,8 @@
       <c r="E10" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11639,10 +12485,10 @@
       <c r="E12" s="48">
         <v>42936</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="95"/>
+      <c r="G12" s="96"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -11660,8 +12506,8 @@
       <c r="E13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -11677,8 +12523,8 @@
         <v>41037</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -11696,8 +12542,8 @@
       <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11716,10 +12562,10 @@
       <c r="E17" s="48">
         <v>42936</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -11737,8 +12583,8 @@
       <c r="E18" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -11754,8 +12600,8 @@
         <v>36671</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -11773,8 +12619,8 @@
       <c r="E20" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
     </row>
   </sheetData>
   <sortState ref="R2:U10">
@@ -11839,7 +12685,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -11971,7 +12817,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B8" s="97"/>
       <c r="C8" s="97"/>
@@ -12035,76 +12881,76 @@
       <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12518,7 +13364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -12906,13 +13752,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
+      <c r="A23" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="42"/>
       <c r="G23" s="5"/>
     </row>
@@ -13043,8 +13889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13067,46 +13913,46 @@
         <v>146</v>
       </c>
       <c r="B1" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="E1" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>140</v>
-      </c>
       <c r="F1" s="68" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G1" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" s="68" t="s">
-        <v>178</v>
-      </c>
       <c r="N1" s="68" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="P1" s="68"/>
     </row>
@@ -13115,19 +13961,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="E2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="F2" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>95</v>
@@ -13166,16 +14012,16 @@
         <v>75</v>
       </c>
       <c r="C3" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>95</v>
@@ -13211,19 +14057,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F4" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>99</v>
@@ -13259,19 +14105,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>99</v>
